--- a/src/main/resources/datamanagement/Testdata.xlsx
+++ b/src/main/resources/datamanagement/Testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muham\IdeaProjects\qalegend\src\main\resources\datamanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C42017-A93A-4D46-9BAC-CEDDAB7F71AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44E1A0B-EFA0-43A8-B475-AF5E06AC2598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>expectedtitle</t>
   </si>
   <si>
     <t>Login - Demo POS</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>anas123</t>
+  </si>
+  <si>
+    <t>Zehra@2016</t>
+  </si>
+  <si>
+    <t>userAccountName</t>
+  </si>
+  <si>
+    <t>anas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +68,14 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -69,14 +95,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -355,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -375,7 +404,34 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{1312ECB2-151D-44F9-BA15-7F0D77139FB2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/datamanagement/Testdata.xlsx
+++ b/src/main/resources/datamanagement/Testdata.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muham\IdeaProjects\qalegend\src\main\resources\datamanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44E1A0B-EFA0-43A8-B475-AF5E06AC2598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CD3CA8-16BC-42B4-83E9-0723C0E7AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="ResetPage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>expectedtitle</t>
   </si>
@@ -49,6 +50,12 @@
   </si>
   <si>
     <t>anas</t>
+  </si>
+  <si>
+    <t>expectedmessage</t>
+  </si>
+  <si>
+    <t>We can't find a user with that e-mail address.</t>
   </si>
 </sst>
 </file>
@@ -386,7 +393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -434,4 +441,31 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE09DFA-E772-4B1D-B623-CFCC093B80E7}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="40.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/datamanagement/Testdata.xlsx
+++ b/src/main/resources/datamanagement/Testdata.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muham\IdeaProjects\qalegend\src\main\resources\datamanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CD3CA8-16BC-42B4-83E9-0723C0E7AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B326F0-CD5D-4360-8FC3-C45505D7C709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="ResetPage" sheetId="2" r:id="rId2"/>
+    <sheet name="UserManagement" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>expectedtitle</t>
   </si>
@@ -56,6 +57,18 @@
   </si>
   <si>
     <t>We can't find a user with that e-mail address.</t>
+  </si>
+  <si>
+    <t>panelvalues</t>
+  </si>
+  <si>
+    <t>Users;Roles;Sales Commission Agents</t>
+  </si>
+  <si>
+    <t>expectedusernameerrormessage</t>
+  </si>
+  <si>
+    <t>These credentials do not match our records.</t>
   </si>
 </sst>
 </file>
@@ -391,16 +404,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -433,6 +446,14 @@
       </c>
       <c r="B4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -447,7 +468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE09DFA-E772-4B1D-B623-CFCC093B80E7}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -468,4 +489,32 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C7EC3A-5B6D-4041-9173-8F049003837C}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/resources/datamanagement/Testdata.xlsx
+++ b/src/main/resources/datamanagement/Testdata.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muham\IdeaProjects\qalegend\src\main\resources\datamanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B326F0-CD5D-4360-8FC3-C45505D7C709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF33F324-5CCF-4CE3-9F6D-4DB14442A02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="ResetPage" sheetId="2" r:id="rId2"/>
-    <sheet name="UserManagement" sheetId="3" r:id="rId3"/>
+    <sheet name="ManageUsers" sheetId="4" r:id="rId2"/>
+    <sheet name="ResetPage" sheetId="2" r:id="rId3"/>
+    <sheet name="UserManagement" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>expectedtitle</t>
   </si>
@@ -50,9 +51,6 @@
     <t>userAccountName</t>
   </si>
   <si>
-    <t>anas</t>
-  </si>
-  <si>
     <t>expectedmessage</t>
   </si>
   <si>
@@ -69,6 +67,15 @@
   </si>
   <si>
     <t>These credentials do not match our records.</t>
+  </si>
+  <si>
+    <t>expectederrormessage</t>
+  </si>
+  <si>
+    <t>No matching records found</t>
+  </si>
+  <si>
+    <t>Anas</t>
   </si>
 </sst>
 </file>
@@ -119,10 +126,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -407,7 +415,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,15 +453,15 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -465,11 +473,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDB0FAF-62E8-48C0-AD6F-A442ECDF5B33}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE09DFA-E772-4B1D-B623-CFCC093B80E7}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,10 +515,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -491,7 +526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C7EC3A-5B6D-4041-9173-8F049003837C}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -507,10 +542,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/datamanagement/Testdata.xlsx
+++ b/src/main/resources/datamanagement/Testdata.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muham\IdeaProjects\qalegend\src\main\resources\datamanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF33F324-5CCF-4CE3-9F6D-4DB14442A02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D19E1C-8D51-4280-B6E1-20EFC3605128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3144" yWindow="3228" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
-    <sheet name="ManageUsers" sheetId="4" r:id="rId2"/>
-    <sheet name="ResetPage" sheetId="2" r:id="rId3"/>
-    <sheet name="UserManagement" sheetId="3" r:id="rId4"/>
+    <sheet name="Products" sheetId="5" r:id="rId2"/>
+    <sheet name="ManageUsers" sheetId="4" r:id="rId3"/>
+    <sheet name="ResetPage" sheetId="2" r:id="rId4"/>
+    <sheet name="UserManagement" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>expectedtitle</t>
   </si>
@@ -76,6 +77,18 @@
   </si>
   <si>
     <t>Anas</t>
+  </si>
+  <si>
+    <t>Variations;Import Products;Import Opening Stock;Selling Price Group;Units;Categories ;Brands</t>
+  </si>
+  <si>
+    <t>categoryName</t>
+  </si>
+  <si>
+    <t>Tea powder</t>
+  </si>
+  <si>
+    <t>categoryCode</t>
   </si>
 </sst>
 </file>
@@ -126,11 +139,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -414,7 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -473,6 +489,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739BE882-79DD-47D2-9979-F056F9A38A9A}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="78.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDB0FAF-62E8-48C0-AD6F-A442ECDF5B33}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -499,7 +558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE09DFA-E772-4B1D-B623-CFCC093B80E7}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -526,7 +585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C7EC3A-5B6D-4041-9173-8F049003837C}">
   <dimension ref="A1:B1"/>
   <sheetViews>
